--- a/04. Ke Hoach/03. Ke hoach ca nhan/Sang/todolist_chi tiet.xlsx
+++ b/04. Ke Hoach/03. Ke hoach ca nhan/Sang/todolist_chi tiet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\sang1998\sang\Makerting online\DuLieuQuanLy\04. Ke Hoach\03. Ke hoach ca nhan\Sang\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>STT</t>
   </si>
@@ -96,16 +96,54 @@
   </si>
   <si>
     <t>fb k phát hiện lần đầu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm hiểu appium </t>
+  </si>
+  <si>
+    <t>lập nick</t>
+  </si>
+  <si>
+    <t>2/5/2020 Tạo tool auto giải lập nuôi nick</t>
+  </si>
+  <si>
+    <t>dùng thư viện android debug bridge 
+nhưng Hướng dẫn kteam dùng c#</t>
+  </si>
+  <si>
+    <t>Tìm thư viện python</t>
+  </si>
+  <si>
+    <t>cài adb python k đc</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>https://github.com/google/python-adb/issues/112</t>
+  </si>
+  <si>
+    <t>cài ok</t>
+  </si>
+  <si>
+    <t>https://github.com/openatx/adbutils</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -127,16 +165,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -415,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -508,12 +550,52 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="25" spans="2:5" ht="36" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D26" r:id="rId1"/>
+    <hyperlink ref="E25" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/04. Ke Hoach/03. Ke hoach ca nhan/Sang/todolist_chi tiet.xlsx
+++ b/04. Ke Hoach/03. Ke hoach ca nhan/Sang/todolist_chi tiet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Makerting online\DuLieuQuanLy\04. Ke Hoach\03. Ke hoach ca nhan\Sang\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>STT</t>
   </si>
@@ -96,6 +97,12 @@
   </si>
   <si>
     <t>fb k phát hiện lần đầu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm hiểu appium </t>
+  </si>
+  <si>
+    <t>lập nick</t>
   </si>
 </sst>
 </file>
@@ -418,7 +425,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -508,6 +515,14 @@
         <v>21</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>1</v>
